--- a/analysis/tables/summary_tables.xlsx
+++ b/analysis/tables/summary_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamwilson/Desktop/Ocean Carrier Alliances Project/analysis/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0260D152-37A2-2745-AFF4-6D9A476D6712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781AB81E-3575-9E42-B4B3-7F7CB2213484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{9EAB8E40-31D3-6348-8D66-163B18C85AE4}"/>
+    <workbookView xWindow="23520" yWindow="3760" windowWidth="30240" windowHeight="18880" xr2:uid="{9EAB8E40-31D3-6348-8D66-163B18C85AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -61,9 +61,6 @@
     <t>Volume (TEU)</t>
   </si>
   <si>
-    <t>Departure Region</t>
-  </si>
-  <si>
     <t>Arrival Region</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>categorical</t>
   </si>
   <si>
-    <t>continuous</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>Geographic Data</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>PIERS/FMC</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>Coast Region</t>
   </si>
   <si>
-    <t>US coast of origin (imports) or destination (exports)</t>
-  </si>
-  <si>
     <t>The Ocean Carrier Alliance to which the carrier belonged when the shipment was carried</t>
   </si>
   <si>
@@ -220,12 +208,6 @@
     <t>Indicates whether the cargo was carried by the vessel's Primary Carrier</t>
   </si>
   <si>
-    <t>Region of origin port (only relevant to imports)</t>
-  </si>
-  <si>
-    <t>Region of destination port (only relevant to exports)</t>
-  </si>
-  <si>
     <t>Rate (20ft Dry, USD)</t>
   </si>
   <si>
@@ -320,15 +302,21 @@
   </si>
   <si>
     <t>rate_40</t>
+  </si>
+  <si>
+    <t>numerical</t>
+  </si>
+  <si>
+    <t>US coast of departure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region of destination port </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -387,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,9 +409,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -762,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382EE851-FE2B-D94A-96D1-80EAA5459403}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,621 +758,437 @@
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="3" width="14.1640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="92.33203125" customWidth="1"/>
+    <col min="5" max="5" width="92.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9">
         <v>63737454</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="9">
         <v>63737455</v>
       </c>
-      <c r="E4" s="10">
-        <v>3.2210000000000001</v>
-      </c>
-      <c r="F4" s="10">
-        <v>5.9829999999999997</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="9">
-        <v>3729</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9">
+        <v>35720688</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9">
+        <v>35720688</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="10">
-        <v>41</v>
-      </c>
-      <c r="E5" s="9">
-        <v>5948</v>
-      </c>
-      <c r="F5" s="9">
-        <v>4907</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1180</v>
-      </c>
-      <c r="H5" s="9">
-        <v>14000</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10">
-        <v>41</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4904</v>
-      </c>
-      <c r="F6" s="9">
-        <v>4019</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1520</v>
-      </c>
-      <c r="H6" s="9">
-        <v>11480</v>
-      </c>
-      <c r="I6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="9">
         <v>63737455</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12">
-        <v>39083</v>
-      </c>
-      <c r="H7" s="12">
-        <v>45291</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9">
         <v>63736118</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="9">
         <v>63737455</v>
       </c>
-      <c r="E9" s="10">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9">
         <v>63737455</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="9">
         <v>63737455</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="9">
         <v>63737455</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9">
         <v>63737455</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9">
+        <v>63723810</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="9">
         <v>63737455</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9">
-        <v>63723810</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="9">
         <v>63737455</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" t="s">
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D18" s="9">
         <v>63737455</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="E18" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="9">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9">
         <v>63737455</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="9">
         <v>63737455</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D22" s="9">
         <v>63737455</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" t="s">
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="9">
+        <v>63737455</v>
+      </c>
+      <c r="E24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="9">
-        <v>63737455</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D25" s="9">
-        <v>63737455</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>59237960</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="9">
+        <v>63737455</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="9">
-        <v>59237960</v>
-      </c>
-      <c r="E26" s="9">
-        <v>2160</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1499</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>17890</v>
-      </c>
-      <c r="I26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D27" s="9">
         <v>63737455</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="9">
-        <v>63737455</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1414,7 +1215,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -1432,89 +1233,89 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>38046</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>2152.3504951426598</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>2931.4744491665201</v>
       </c>
       <c r="E2">
         <v>0.15</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>48794.3685379085</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>38046</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>1946.0007334945201</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>3213.5262916567699</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1.15024640028598E-5</v>
       </c>
       <c r="F3">
         <v>10000</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>38046</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>1573.56655192057</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>3095.7214096052899</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>1.15024640028598E-5</v>
       </c>
       <c r="F4">
         <v>10000</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>38046</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>17.372759291384099</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>10.304397885853099</v>
       </c>
       <c r="E5">
@@ -1524,43 +1325,43 @@
         <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>35737</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>2563.9549840419099</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>1502.2532675058001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>8555.5882352941098</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>38046</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>58005.8150872318</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>77169.940321276401</v>
       </c>
       <c r="E7">
@@ -1570,20 +1371,20 @@
         <v>648600.95588235301</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>38046</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>33.878673185091699</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>24.865894991885298</v>
       </c>
       <c r="E8">
@@ -1593,20 +1394,20 @@
         <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>38046</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>11.790201335225699</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>6.7394780792039199</v>
       </c>
       <c r="E9">
@@ -1616,20 +1417,20 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>38046</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>4.3861115491773104</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>3.2171018456864799</v>
       </c>
       <c r="E10">
@@ -1639,12 +1440,12 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1655,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A4F579-04DA-A248-9404-887DDCCC37E9}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1670,27 +1471,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>97065</v>
@@ -1698,7 +1499,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>97065</v>
@@ -1712,27 +1513,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>97065</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>1475.1834428178499</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>2409.52700498783</v>
       </c>
       <c r="E4">
         <v>0.3</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>48794.368537912203</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1740,7 +1541,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>0</v>
